--- a/dataset_alunos.xlsx
+++ b/dataset_alunos.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/2d18dc1cc5199741/Documentos/GitHub/analise-de-dados/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3" documentId="11_15F9B3B7D3605D0A7B992F11595ED87656C8987E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{CAC4999B-3DCC-40F0-95BB-B7F079905F16}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="11_15F9B3B7D3605D0A7B992F11595ED87656C8987E" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{B859326D-C3E7-4C96-AD65-C57F72875791}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -644,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:X362"/>
+  <dimension ref="A1:X361"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F362" sqref="F362"/>
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -27366,12 +27366,6 @@
         <v>45</v>
       </c>
     </row>
-    <row r="362" spans="1:24" x14ac:dyDescent="0.3">
-      <c r="F362">
-        <f>AVERAGE(F2:F361)</f>
-        <v>63.889611111111158</v>
-      </c>
-    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
